--- a/LoadingAPI/Admin/Datafiles/questions.xlsx
+++ b/LoadingAPI/Admin/Datafiles/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegfa\Programming\Kristiania\4.Semester\Smidig\Solution\LoadingV2\LoadingAPI\Admin\Datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFEFF67-A1F4-457B-BBD5-71A846152D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E9294-4ACC-43E9-8CEC-0F171E0DBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>QuestionText</t>
   </si>
@@ -33,7 +33,10 @@
     <t>AnswerAmount</t>
   </si>
   <si>
-    <t>Am I happy it works?</t>
+    <t>This should be the only question?</t>
+  </si>
+  <si>
+    <t>Did I lie last time?</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +374,17 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LoadingAPI/Admin/Datafiles/questions.xlsx
+++ b/LoadingAPI/Admin/Datafiles/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegfa\Programming\Kristiania\4.Semester\Smidig\Solution\LoadingV2\LoadingAPI\Admin\Datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.thingvold/Desktop/4 SEMESTER/Smidig/Loading/LoadingV2/LoadingAPI/Admin/Datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E9294-4ACC-43E9-8CEC-0F171E0DBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48494D5-BCA7-8F44-8C27-ABB14B994D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="780" windowWidth="28800" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>AnswerAmount</t>
   </si>
   <si>
-    <t>This should be the only question?</t>
+    <t>Hvilket våpen skal Askeladden velge?</t>
   </si>
   <si>
-    <t>Did I lie last time?</t>
+    <t>Skal Askeladden hjelpe Reveeneka?</t>
   </si>
 </sst>
 </file>
@@ -357,12 +357,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,20 +373,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
